--- a/src/test/resource/Datasheets/EbayDataSheet.xlsx
+++ b/src/test/resource/Datasheets/EbayDataSheet.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasel\workspace\SaturdayVisionProject\src\test\resource\Datasheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasel\workspace\SundayLokiProject\src\test\resource\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA05B0E-C1FE-4D58-9F57-F304D4C83354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADFFDC-234D-4D9C-935A-AC7A6EE643B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15372" yWindow="1344" windowWidth="12408" windowHeight="10224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EbayDataSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -56,7 +54,7 @@
     <t>Red</t>
   </si>
   <si>
-    <t xml:space="preserve">5 </t>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -408,7 +406,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,28 +506,4 @@
     <ignoredError sqref="B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2AA4BA-F4E0-4260-BDC0-B9F18309A7FE}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED845E5-C548-4443-B5E0-9BA35426D81D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>